--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20250930_165840.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20250930_165840.xlsx
@@ -5145,7 +5145,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
